--- a/data/trans_orig/DC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4E0C03-7163-4DE2-A666-81FB898B48D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AE0AD1-D45D-4918-AD9C-3ACBF5DD81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05EA149A-951A-4B97-BB8A-5A711BFC066E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{559AE4DE-7E9C-4104-9C8B-BBFF1AE11661}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="619">
   <si>
     <t>Población con dolor crónico en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -110,28 +110,28 @@
     <t>18,32%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -140,28 +140,28 @@
     <t>81,68%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -185,7 +185,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,39%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -194,1684 +194,1651 @@
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>73,87%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>66,49%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1883,55 +1850,52 @@
     <t>21,76%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>20,1%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AA3581-C5D3-4FCE-8F42-13BFFA5C3F86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3187B-EDD0-4AC1-887C-93831F603C65}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2796,7 +2760,7 @@
         <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2805,13 +2769,13 @@
         <v>7132</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2790,13 @@
         <v>87023</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -2841,13 +2805,13 @@
         <v>122731</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -2856,13 +2820,13 @@
         <v>209754</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2841,13 @@
         <v>488672</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>441</v>
@@ -2892,13 +2856,13 @@
         <v>448691</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>928</v>
@@ -2907,13 +2871,13 @@
         <v>937364</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,7 +2933,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2987,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2996,13 +2960,13 @@
         <v>1067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3011,13 +2975,13 @@
         <v>1067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +2996,13 @@
         <v>13565</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -3047,13 +3011,13 @@
         <v>36657</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M15" s="7">
         <v>45</v>
@@ -3062,13 +3026,13 @@
         <v>50222</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3047,13 @@
         <v>127093</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>197</v>
@@ -3098,13 +3062,13 @@
         <v>213019</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>318</v>
@@ -3113,13 +3077,13 @@
         <v>340112</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3098,13 @@
         <v>821142</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>677</v>
@@ -3149,13 +3113,13 @@
         <v>717650</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1440</v>
@@ -3164,13 +3128,13 @@
         <v>1538792</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3190,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3244,7 +3208,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3253,13 +3217,13 @@
         <v>9436</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3268,13 +3232,13 @@
         <v>9436</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3253,13 @@
         <v>6360</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -3304,13 +3268,13 @@
         <v>50446</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -3319,13 +3283,13 @@
         <v>56806</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3304,13 @@
         <v>138303</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>188</v>
@@ -3355,13 +3319,13 @@
         <v>179671</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -3370,13 +3334,13 @@
         <v>317974</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3355,13 @@
         <v>533846</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>446</v>
@@ -3406,13 +3370,13 @@
         <v>444287</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>945</v>
@@ -3421,13 +3385,13 @@
         <v>978134</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3447,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3501,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3510,13 +3474,13 @@
         <v>3122</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3528,10 +3492,10 @@
         <v>47</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3510,13 @@
         <v>12104</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3561,13 +3525,13 @@
         <v>44274</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -3576,13 +3540,13 @@
         <v>56378</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3561,13 @@
         <v>165193</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>246</v>
@@ -3612,13 +3576,13 @@
         <v>255069</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>427</v>
@@ -3627,13 +3591,13 @@
         <v>420262</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3612,13 @@
         <v>764925</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H27" s="7">
         <v>705</v>
@@ -3663,13 +3627,13 @@
         <v>736147</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M27" s="7">
         <v>1504</v>
@@ -3678,13 +3642,13 @@
         <v>1501072</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3767,13 +3731,13 @@
         <v>13626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -3782,13 +3746,13 @@
         <v>13626</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3767,13 @@
         <v>34988</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>133</v>
@@ -3818,13 +3782,13 @@
         <v>136417</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>168</v>
@@ -3833,13 +3797,13 @@
         <v>171405</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3818,13 @@
         <v>538745</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>778</v>
@@ -3869,13 +3833,13 @@
         <v>791554</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>1324</v>
@@ -3884,13 +3848,13 @@
         <v>1330299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3869,13 @@
         <v>2702811</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>2372</v>
@@ -3920,28 +3884,28 @@
         <v>2437601</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>5005</v>
       </c>
       <c r="N32" s="7">
-        <v>5140411</v>
+        <v>5140412</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3947,7 @@
         <v>6511</v>
       </c>
       <c r="N33" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>41</v>
@@ -3997,7 +3961,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +3982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA469E7B-4CB4-46AE-AC74-B0BD0C644E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328A089C-6E09-4A46-B5ED-235B3A3B040E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4035,7 +3999,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4148,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4157,13 +4121,13 @@
         <v>973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4172,13 +4136,13 @@
         <v>973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4208,13 +4172,13 @@
         <v>6665</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4223,13 +4187,13 @@
         <v>6665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4208,13 @@
         <v>11912</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4259,13 +4223,13 @@
         <v>25094</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -4274,13 +4238,13 @@
         <v>37005</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4259,13 @@
         <v>103853</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4310,13 +4274,13 @@
         <v>79174</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -4325,13 +4289,13 @@
         <v>183027</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4414,13 +4378,13 @@
         <v>6208</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4429,13 +4393,13 @@
         <v>6208</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4414,13 @@
         <v>3041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4465,13 +4429,13 @@
         <v>23195</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4480,13 +4444,13 @@
         <v>26236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4465,13 @@
         <v>72048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -4516,13 +4480,13 @@
         <v>117757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>177</v>
@@ -4531,13 +4495,13 @@
         <v>189805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4516,13 @@
         <v>512615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>414</v>
@@ -4567,13 +4531,13 @@
         <v>437985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>895</v>
@@ -4582,13 +4546,13 @@
         <v>950600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4608,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4662,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4671,13 +4635,13 @@
         <v>6248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4686,13 +4650,13 @@
         <v>6248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4671,13 @@
         <v>8827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4722,13 +4686,13 @@
         <v>30693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>269</v>
+        <v>145</v>
       </c>
       <c r="M15" s="7">
         <v>35</v>
@@ -4737,13 +4701,13 @@
         <v>39520</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4722,13 @@
         <v>109059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>175</v>
@@ -4773,13 +4737,13 @@
         <v>190797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -4788,13 +4752,13 @@
         <v>299856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4773,13 @@
         <v>900061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>731</v>
@@ -4824,13 +4788,13 @@
         <v>804446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>1559</v>
@@ -4839,13 +4803,13 @@
         <v>1704506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4919,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4928,13 +4892,13 @@
         <v>1995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4943,13 +4907,13 @@
         <v>1995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4928,13 @@
         <v>1994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -4979,13 +4943,13 @@
         <v>21209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -4994,13 +4958,13 @@
         <v>23203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +4979,13 @@
         <v>56488</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H21" s="7">
         <v>149</v>
@@ -5030,13 +4994,13 @@
         <v>160060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M21" s="7">
         <v>199</v>
@@ -5045,13 +5009,13 @@
         <v>216548</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5030,13 @@
         <v>699141</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>535</v>
@@ -5081,13 +5045,13 @@
         <v>593910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>1172</v>
@@ -5096,13 +5060,13 @@
         <v>1293051</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,7 +5122,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5176,7 +5140,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5185,13 +5149,13 @@
         <v>1053</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -5200,13 +5164,13 @@
         <v>1053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5185,13 @@
         <v>5067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5236,13 +5200,13 @@
         <v>34494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -5251,13 +5215,13 @@
         <v>39561</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5236,13 @@
         <v>85842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>208</v>
@@ -5287,13 +5251,13 @@
         <v>221843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>290</v>
@@ -5302,13 +5266,13 @@
         <v>307685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5287,13 @@
         <v>856830</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H27" s="7">
         <v>761</v>
@@ -5338,13 +5302,13 @@
         <v>794511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M27" s="7">
         <v>1584</v>
@@ -5353,13 +5317,13 @@
         <v>1651341</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -5442,13 +5406,13 @@
         <v>16476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5457,13 +5421,13 @@
         <v>16476</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5442,13 @@
         <v>18930</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>349</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -5493,13 +5457,13 @@
         <v>116256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>18</v>
+        <v>344</v>
       </c>
       <c r="M30" s="7">
         <v>124</v>
@@ -5508,13 +5472,13 @@
         <v>135186</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5493,13 @@
         <v>335348</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H31" s="7">
         <v>664</v>
@@ -5544,13 +5508,13 @@
         <v>715551</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M31" s="7">
         <v>979</v>
@@ -5559,13 +5523,13 @@
         <v>1050899</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>360</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5544,13 @@
         <v>3072501</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H32" s="7">
         <v>2511</v>
@@ -5595,13 +5559,13 @@
         <v>2710026</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="M32" s="7">
         <v>5388</v>
@@ -5610,13 +5574,13 @@
         <v>5782527</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,7 +5636,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5693,7 +5657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11854FF-70BE-44A0-AB50-22F7B7529A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1764E458-9894-4E36-9963-6095D0573C71}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5710,7 +5674,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5823,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5832,13 +5796,13 @@
         <v>941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5847,13 +5811,13 @@
         <v>941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5832,13 @@
         <v>3052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5883,13 +5847,13 @@
         <v>2702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5898,13 +5862,13 @@
         <v>5754</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5883,13 @@
         <v>9881</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5934,13 +5898,13 @@
         <v>18834</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5949,13 +5913,13 @@
         <v>28715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5934,13 @@
         <v>103613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -5985,13 +5949,13 @@
         <v>90884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>194</v>
@@ -6000,13 +5964,13 @@
         <v>194497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,7 +6044,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -6089,13 +6053,13 @@
         <v>1205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6104,13 +6068,13 @@
         <v>1205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6089,13 @@
         <v>7575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6140,13 +6104,13 @@
         <v>8581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6155,13 +6119,13 @@
         <v>16156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6140,13 @@
         <v>45419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -6191,13 +6155,13 @@
         <v>96687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -6206,13 +6170,13 @@
         <v>142106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6191,13 @@
         <v>505261</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
         <v>450</v>
@@ -6242,13 +6206,13 @@
         <v>453006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7">
         <v>937</v>
@@ -6257,13 +6221,13 @@
         <v>958267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,7 +6283,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6331,13 +6295,13 @@
         <v>974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6346,13 +6310,13 @@
         <v>928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6361,13 +6325,13 @@
         <v>1902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6346,13 @@
         <v>6866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -6397,13 +6361,13 @@
         <v>33408</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M15" s="7">
         <v>37</v>
@@ -6412,13 +6376,13 @@
         <v>40274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6397,13 @@
         <v>84127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H16" s="7">
         <v>132</v>
@@ -6448,13 +6412,13 @@
         <v>146800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -6463,13 +6427,13 @@
         <v>230927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6448,13 @@
         <v>930464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>814</v>
@@ -6499,13 +6463,13 @@
         <v>861777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M17" s="7">
         <v>1678</v>
@@ -6514,13 +6478,13 @@
         <v>1792242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,7 +6540,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6594,7 +6558,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6609,7 +6573,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6618,13 +6582,13 @@
         <v>1271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6603,13 @@
         <v>5103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -6654,13 +6618,13 @@
         <v>23211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6669,13 +6633,13 @@
         <v>28314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>455</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6654,13 @@
         <v>58233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -6705,13 +6669,13 @@
         <v>89317</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
@@ -6720,13 +6684,13 @@
         <v>147550</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6705,13 @@
         <v>696216</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>631</v>
@@ -6756,13 +6720,13 @@
         <v>671212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>470</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M22" s="7">
         <v>1267</v>
@@ -6771,13 +6735,13 @@
         <v>1367428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,7 +6797,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6851,7 +6815,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6860,13 +6824,13 @@
         <v>2232</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6875,13 +6839,13 @@
         <v>2232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6860,13 @@
         <v>5283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>475</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -6911,13 +6875,13 @@
         <v>40774</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6926,13 +6890,13 @@
         <v>46057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6911,13 @@
         <v>95179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -6962,13 +6926,13 @@
         <v>184290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M26" s="7">
         <v>256</v>
@@ -6977,13 +6941,13 @@
         <v>279470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6962,13 @@
         <v>837105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -7013,13 +6977,13 @@
         <v>816482</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>494</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1592</v>
@@ -7028,13 +6992,13 @@
         <v>1653587</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7066,13 @@
         <v>974</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7117,13 +7081,13 @@
         <v>6577</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -7132,13 +7096,13 @@
         <v>7551</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,10 +7120,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
@@ -7168,13 +7132,13 @@
         <v>108676</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -7183,13 +7147,13 @@
         <v>136554</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>113</v>
+        <v>496</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7168,13 @@
         <v>292839</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H31" s="7">
         <v>489</v>
@@ -7219,13 +7183,13 @@
         <v>535928</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M31" s="7">
         <v>769</v>
@@ -7234,13 +7198,13 @@
         <v>828767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>512</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7219,13 @@
         <v>3072659</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H32" s="7">
         <v>2744</v>
@@ -7270,13 +7234,13 @@
         <v>2893361</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M32" s="7">
         <v>5668</v>
@@ -7285,13 +7249,13 @@
         <v>5966020</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,7 +7311,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7368,7 +7332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82575125-A6B1-4FD9-AD5B-E0E997EEF3BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE39A74A-1561-467E-A0A6-1C22C8630609}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7385,7 +7349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7498,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>523</v>
+        <v>346</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7513,7 +7477,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7528,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,7 +7513,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>523</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7564,7 +7528,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7579,7 +7543,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,13 +7558,13 @@
         <v>26570</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -7609,13 +7573,13 @@
         <v>52006</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M6" s="7">
         <v>135</v>
@@ -7624,13 +7588,13 @@
         <v>78576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7609,13 @@
         <v>75412</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -7660,13 +7624,13 @@
         <v>78727</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -7675,13 +7639,13 @@
         <v>154139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,7 +7719,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7770,7 +7734,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7785,7 +7749,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,7 +7770,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7821,7 +7785,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7836,7 +7800,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7815,13 @@
         <v>121755</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -7866,13 +7830,13 @@
         <v>222311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M11" s="7">
         <v>567</v>
@@ -7881,13 +7845,13 @@
         <v>344066</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,13 +7866,13 @@
         <v>428068</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>546</v>
       </c>
       <c r="H12" s="7">
         <v>585</v>
@@ -7917,13 +7881,13 @@
         <v>397656</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="M12" s="7">
         <v>1043</v>
@@ -7932,13 +7896,13 @@
         <v>825724</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,7 +7958,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8012,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8027,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8042,7 +8006,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8063,7 +8027,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8078,7 +8042,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8093,7 +8057,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8072,13 @@
         <v>195848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H16" s="7">
         <v>637</v>
@@ -8123,13 +8087,13 @@
         <v>408943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="M16" s="7">
         <v>856</v>
@@ -8138,13 +8102,13 @@
         <v>604791</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,13 +8123,13 @@
         <v>843400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -8174,13 +8138,13 @@
         <v>651136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>1625</v>
@@ -8189,13 +8153,13 @@
         <v>1494536</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,7 +8215,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8269,7 +8233,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8299,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8320,7 +8284,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8350,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,13 +8329,13 @@
         <v>169538</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>569</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H21" s="7">
         <v>450</v>
@@ -8380,13 +8344,13 @@
         <v>425509</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M21" s="7">
         <v>625</v>
@@ -8395,13 +8359,13 @@
         <v>595046</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,13 +8380,13 @@
         <v>559234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>597</v>
@@ -8431,13 +8395,13 @@
         <v>448862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="M22" s="7">
         <v>1098</v>
@@ -8446,13 +8410,13 @@
         <v>1008096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8508,7 +8472,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8526,7 +8490,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8541,7 +8505,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8556,7 +8520,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,7 +8541,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8592,7 +8556,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8607,7 +8571,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8622,13 +8586,13 @@
         <v>222784</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>584</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H26" s="7">
         <v>605</v>
@@ -8637,13 +8601,13 @@
         <v>437668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="M26" s="7">
         <v>853</v>
@@ -8652,13 +8616,13 @@
         <v>660452</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8673,13 +8637,13 @@
         <v>742619</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>604</v>
+        <v>311</v>
       </c>
       <c r="H27" s="7">
         <v>957</v>
@@ -8688,13 +8652,13 @@
         <v>712764</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="M27" s="7">
         <v>1715</v>
@@ -8703,13 +8667,13 @@
         <v>1455383</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>610</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,7 +8747,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8798,7 +8762,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8813,7 +8777,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8834,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8849,7 +8813,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8864,7 +8828,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8879,13 +8843,13 @@
         <v>736495</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>615</v>
+        <v>123</v>
       </c>
       <c r="H31" s="7">
         <v>2204</v>
@@ -8894,28 +8858,28 @@
         <v>1546437</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="M31" s="7">
         <v>3036</v>
       </c>
       <c r="N31" s="7">
-        <v>2282932</v>
+        <v>2282931</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8930,13 +8894,13 @@
         <v>2648733</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="H32" s="7">
         <v>3163</v>
@@ -8945,13 +8909,13 @@
         <v>2289144</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="M32" s="7">
         <v>5707</v>
@@ -8960,13 +8924,13 @@
         <v>4937877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9008,7 +8972,7 @@
         <v>8743</v>
       </c>
       <c r="N33" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>41</v>
@@ -9022,7 +8986,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AE0AD1-D45D-4918-AD9C-3ACBF5DD81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10806D5-DFFD-4A91-96B7-7F9BECF2F6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{559AE4DE-7E9C-4104-9C8B-BBFF1AE11661}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B993CA-65FD-423F-87A5-1B1DAFA45BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="620">
   <si>
     <t>Población con dolor crónico en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>3.0</t>
@@ -101,7 +101,7 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -110,28 +110,28 @@
     <t>18,32%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -140,1690 +140,1693 @@
     <t>81,68%</t>
   </si>
   <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
   </si>
   <si>
     <t>79,65%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
   </si>
   <si>
     <t>61,96%</t>
@@ -2307,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3187B-EDD0-4AC1-887C-93831F603C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C898091F-971A-4E6D-876D-DB920841E992}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2760,7 +2763,7 @@
         <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2769,13 +2772,13 @@
         <v>7132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2793,13 @@
         <v>87023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -2805,13 +2808,13 @@
         <v>122731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -2820,13 +2823,13 @@
         <v>209754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2844,13 @@
         <v>488672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>441</v>
@@ -2856,13 +2859,13 @@
         <v>448691</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>928</v>
@@ -2871,13 +2874,13 @@
         <v>937364</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2936,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2951,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2960,13 +2963,13 @@
         <v>1067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2975,13 +2978,13 @@
         <v>1067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2999,13 @@
         <v>13565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -3011,13 +3014,13 @@
         <v>36657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>45</v>
@@ -3026,13 +3029,13 @@
         <v>50222</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3050,13 @@
         <v>127093</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>197</v>
@@ -3062,13 +3065,13 @@
         <v>213019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>318</v>
@@ -3077,13 +3080,13 @@
         <v>340112</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3101,13 @@
         <v>821142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>677</v>
@@ -3113,13 +3116,13 @@
         <v>717650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1440</v>
@@ -3128,13 +3131,13 @@
         <v>1538792</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3193,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3208,7 +3211,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3217,13 +3220,13 @@
         <v>9436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3232,13 +3235,13 @@
         <v>9436</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3256,13 @@
         <v>6360</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -3268,13 +3271,13 @@
         <v>50446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -3283,13 +3286,13 @@
         <v>56806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3307,13 @@
         <v>138303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>188</v>
@@ -3319,13 +3322,13 @@
         <v>179671</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -3334,13 +3337,13 @@
         <v>317974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3358,13 @@
         <v>533846</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>446</v>
@@ -3370,13 +3373,13 @@
         <v>444287</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>945</v>
@@ -3385,13 +3388,13 @@
         <v>978134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,7 +3450,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3465,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3474,13 +3477,13 @@
         <v>3122</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3492,10 +3495,10 @@
         <v>47</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3513,13 @@
         <v>12104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3525,13 +3528,13 @@
         <v>44274</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -3540,13 +3543,13 @@
         <v>56378</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3564,13 @@
         <v>165193</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>246</v>
@@ -3576,13 +3579,13 @@
         <v>255069</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>427</v>
@@ -3591,13 +3594,13 @@
         <v>420262</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3615,13 @@
         <v>764925</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>705</v>
@@ -3627,13 +3630,13 @@
         <v>736147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>1504</v>
@@ -3642,13 +3645,13 @@
         <v>1501072</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3731,13 +3734,13 @@
         <v>13626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -3746,13 +3749,13 @@
         <v>13626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3770,13 @@
         <v>34988</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>133</v>
@@ -3782,13 +3785,13 @@
         <v>136417</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>168</v>
@@ -3797,13 +3800,13 @@
         <v>171405</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3821,13 @@
         <v>538745</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>778</v>
@@ -3833,13 +3836,13 @@
         <v>791554</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M31" s="7">
         <v>1324</v>
@@ -3848,13 +3851,13 @@
         <v>1330299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,16 +3869,16 @@
         <v>2633</v>
       </c>
       <c r="D32" s="7">
-        <v>2702811</v>
+        <v>2702810</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>2372</v>
@@ -3884,13 +3887,13 @@
         <v>2437601</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>5005</v>
@@ -3899,13 +3902,13 @@
         <v>5140412</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,7 +3920,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>41</v>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328A089C-6E09-4A46-B5ED-235B3A3B040E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F9469-E535-4831-AED0-F2959BD7460B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3999,7 +4002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4112,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4121,13 +4124,13 @@
         <v>973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4136,13 +4139,13 @@
         <v>973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4172,13 +4175,13 @@
         <v>6665</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4187,13 +4190,13 @@
         <v>6665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4211,13 @@
         <v>11912</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4223,13 +4226,13 @@
         <v>25094</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -4238,13 +4241,13 @@
         <v>37005</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4262,13 @@
         <v>103853</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4274,13 +4277,13 @@
         <v>79174</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -4289,13 +4292,13 @@
         <v>183027</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4378,13 +4381,13 @@
         <v>6208</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4393,13 +4396,13 @@
         <v>6208</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4417,13 @@
         <v>3041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4429,13 +4432,13 @@
         <v>23195</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4444,13 +4447,13 @@
         <v>26236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4468,13 @@
         <v>72048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -4480,13 +4483,13 @@
         <v>117757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>177</v>
@@ -4495,13 +4498,13 @@
         <v>189805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4519,13 @@
         <v>512615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>414</v>
@@ -4531,13 +4534,13 @@
         <v>437985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>895</v>
@@ -4546,13 +4549,13 @@
         <v>950600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4611,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4626,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4635,13 +4638,13 @@
         <v>6248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4650,13 +4653,13 @@
         <v>6248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4674,13 @@
         <v>8827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4686,13 +4689,13 @@
         <v>30693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="M15" s="7">
         <v>35</v>
@@ -4701,13 +4704,13 @@
         <v>39520</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4725,13 @@
         <v>109059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>175</v>
@@ -4737,13 +4740,13 @@
         <v>190797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -4752,13 +4755,13 @@
         <v>299856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4776,13 @@
         <v>900061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>731</v>
@@ -4788,13 +4791,13 @@
         <v>804446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>1559</v>
@@ -4803,13 +4806,13 @@
         <v>1704506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4868,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4883,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4892,13 +4895,13 @@
         <v>1995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4907,13 +4910,13 @@
         <v>1995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4931,13 @@
         <v>1994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -4943,13 +4946,13 @@
         <v>21209</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -4958,13 +4961,13 @@
         <v>23203</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4982,13 @@
         <v>56488</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H21" s="7">
         <v>149</v>
@@ -4994,13 +4997,13 @@
         <v>160060</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M21" s="7">
         <v>199</v>
@@ -5009,13 +5012,13 @@
         <v>216548</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5033,13 @@
         <v>699141</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>535</v>
@@ -5045,13 +5048,13 @@
         <v>593910</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>1172</v>
@@ -5060,13 +5063,13 @@
         <v>1293051</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5125,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5140,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5149,13 +5152,13 @@
         <v>1053</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -5164,13 +5167,13 @@
         <v>1053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5188,13 @@
         <v>5067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5215,13 +5218,13 @@
         <v>39561</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5239,13 @@
         <v>85842</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>208</v>
@@ -5251,13 +5254,13 @@
         <v>221843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>290</v>
@@ -5266,13 +5269,13 @@
         <v>307685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5290,13 @@
         <v>856830</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H27" s="7">
         <v>761</v>
@@ -5302,13 +5305,13 @@
         <v>794511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M27" s="7">
         <v>1584</v>
@@ -5317,13 +5320,13 @@
         <v>1651341</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -5406,13 +5409,13 @@
         <v>16476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5421,13 +5424,13 @@
         <v>16476</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5445,13 @@
         <v>18930</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -5457,10 +5460,10 @@
         <v>116256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>344</v>
@@ -5493,13 +5496,13 @@
         <v>335348</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H31" s="7">
         <v>664</v>
@@ -5508,13 +5511,13 @@
         <v>715551</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M31" s="7">
         <v>979</v>
@@ -5523,13 +5526,13 @@
         <v>1050899</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,7 +5639,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5657,7 +5660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1764E458-9894-4E36-9963-6095D0573C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1074705F-2F31-4B73-A843-68D2E4201E39}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5802,7 +5805,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5811,13 +5814,13 @@
         <v>941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5835,13 @@
         <v>3052</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5847,13 +5850,13 @@
         <v>2702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5862,13 +5865,13 @@
         <v>5754</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5886,13 @@
         <v>9881</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5898,13 +5901,13 @@
         <v>18834</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5913,13 +5916,13 @@
         <v>28715</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5937,13 @@
         <v>103613</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -5949,13 +5952,13 @@
         <v>90884</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>194</v>
@@ -5964,13 +5967,13 @@
         <v>194497</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -6068,13 +6071,13 @@
         <v>1205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6092,13 @@
         <v>7575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>397</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6104,13 +6107,13 @@
         <v>8581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6119,13 +6122,13 @@
         <v>16156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6143,13 @@
         <v>45419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -6155,13 +6158,13 @@
         <v>96687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -6170,13 +6173,13 @@
         <v>142106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6194,13 @@
         <v>505261</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H12" s="7">
         <v>450</v>
@@ -6206,13 +6209,13 @@
         <v>453006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>937</v>
@@ -6221,13 +6224,13 @@
         <v>958267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,7 +6286,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6295,13 +6298,13 @@
         <v>974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6310,13 +6313,13 @@
         <v>928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6325,13 +6328,13 @@
         <v>1902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6349,13 @@
         <v>6866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -6361,13 +6364,13 @@
         <v>33408</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M15" s="7">
         <v>37</v>
@@ -6376,13 +6379,13 @@
         <v>40274</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6400,13 @@
         <v>84127</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H16" s="7">
         <v>132</v>
@@ -6412,13 +6415,13 @@
         <v>146800</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -6427,13 +6430,13 @@
         <v>230927</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6451,13 @@
         <v>930464</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>814</v>
@@ -6463,13 +6466,13 @@
         <v>861777</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M17" s="7">
         <v>1678</v>
@@ -6478,13 +6481,13 @@
         <v>1792242</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,7 +6543,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6558,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6573,7 +6576,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6582,13 +6585,13 @@
         <v>1271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6606,13 @@
         <v>5103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -6618,13 +6621,13 @@
         <v>23211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>449</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6633,13 +6636,13 @@
         <v>28314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>448</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6657,13 @@
         <v>58233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -6669,13 +6672,13 @@
         <v>89317</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
@@ -6684,13 +6687,13 @@
         <v>147550</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6708,13 @@
         <v>696216</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H22" s="7">
         <v>631</v>
@@ -6720,13 +6723,13 @@
         <v>671212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M22" s="7">
         <v>1267</v>
@@ -6735,13 +6738,13 @@
         <v>1367428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,7 +6800,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6815,7 +6818,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6824,13 +6827,13 @@
         <v>2232</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>468</v>
+        <v>263</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6839,13 +6842,13 @@
         <v>2232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>469</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6863,13 @@
         <v>5283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -6875,13 +6878,13 @@
         <v>40774</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6890,13 +6893,13 @@
         <v>46057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6914,13 @@
         <v>95179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -6926,13 +6929,13 @@
         <v>184290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>256</v>
@@ -6941,13 +6944,13 @@
         <v>279470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6965,13 @@
         <v>837105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>485</v>
+        <v>66</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -6977,13 +6980,13 @@
         <v>816482</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>484</v>
       </c>
       <c r="M27" s="7">
         <v>1592</v>
@@ -6992,13 +6995,13 @@
         <v>1653587</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>490</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7069,13 @@
         <v>974</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7081,13 +7084,13 @@
         <v>6577</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -7096,13 +7099,13 @@
         <v>7551</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,10 +7123,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
@@ -7132,13 +7135,13 @@
         <v>108676</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -7147,13 +7150,13 @@
         <v>136554</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7171,13 @@
         <v>292839</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H31" s="7">
         <v>489</v>
@@ -7183,13 +7186,13 @@
         <v>535928</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M31" s="7">
         <v>769</v>
@@ -7198,13 +7201,13 @@
         <v>828767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7222,13 @@
         <v>3072659</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H32" s="7">
         <v>2744</v>
@@ -7234,13 +7237,13 @@
         <v>2893361</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M32" s="7">
         <v>5668</v>
@@ -7249,13 +7252,13 @@
         <v>5966020</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,7 +7314,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7332,7 +7335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE39A74A-1561-467E-A0A6-1C22C8630609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431A4887-B5DC-44CF-9EF1-4210D9D242C6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7349,7 +7352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7462,7 +7465,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>513</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7477,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7492,7 +7495,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>513</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7528,7 +7531,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7543,7 +7546,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7561,13 @@
         <v>26570</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -7573,13 +7576,13 @@
         <v>52006</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M6" s="7">
         <v>135</v>
@@ -7588,13 +7591,13 @@
         <v>78576</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7612,13 @@
         <v>75412</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -7624,13 +7627,13 @@
         <v>78727</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -7639,13 +7642,13 @@
         <v>154139</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,7 +7722,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7734,7 +7737,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7749,7 +7752,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,7 +7773,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7785,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7800,7 +7803,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,13 +7818,13 @@
         <v>121755</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -7830,13 +7833,13 @@
         <v>222311</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M11" s="7">
         <v>567</v>
@@ -7845,13 +7848,13 @@
         <v>344066</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,13 +7869,13 @@
         <v>428068</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H12" s="7">
         <v>585</v>
@@ -7881,13 +7884,13 @@
         <v>397656</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M12" s="7">
         <v>1043</v>
@@ -7896,13 +7899,13 @@
         <v>825724</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,7 +7961,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7976,7 +7979,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7991,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8006,7 +8009,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,7 +8030,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8042,7 +8045,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8057,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,7 +8075,7 @@
         <v>195848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>553</v>
@@ -8090,7 +8093,7 @@
         <v>555</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>556</v>
@@ -8144,7 +8147,7 @@
         <v>564</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M17" s="7">
         <v>1625</v>
@@ -8153,13 +8156,13 @@
         <v>1494536</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,7 +8218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8233,7 +8236,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8263,7 +8266,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,7 +8287,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8314,7 +8317,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,13 +8332,13 @@
         <v>169538</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H21" s="7">
         <v>450</v>
@@ -8344,13 +8347,13 @@
         <v>425509</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M21" s="7">
         <v>625</v>
@@ -8359,13 +8362,13 @@
         <v>595046</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,13 +8383,13 @@
         <v>559234</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>597</v>
@@ -8395,13 +8398,13 @@
         <v>448862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="M22" s="7">
         <v>1098</v>
@@ -8410,13 +8413,13 @@
         <v>1008096</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8472,7 +8475,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8490,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8505,7 +8508,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8520,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,7 +8544,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8556,7 +8559,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8571,7 +8574,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,7 +8646,7 @@
         <v>594</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>311</v>
+        <v>595</v>
       </c>
       <c r="H27" s="7">
         <v>957</v>
@@ -8652,13 +8655,13 @@
         <v>712764</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M27" s="7">
         <v>1715</v>
@@ -8667,13 +8670,13 @@
         <v>1455383</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,7 +8750,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8762,7 +8765,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8777,7 +8780,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,7 +8801,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8813,7 +8816,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8828,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8843,13 +8846,13 @@
         <v>736495</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7">
         <v>2204</v>
@@ -8858,13 +8861,13 @@
         <v>1546437</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M31" s="7">
         <v>3036</v>
@@ -8873,13 +8876,13 @@
         <v>2282931</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8894,13 +8897,13 @@
         <v>2648733</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H32" s="7">
         <v>3163</v>
@@ -8909,13 +8912,13 @@
         <v>2289144</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M32" s="7">
         <v>5707</v>
@@ -8924,13 +8927,13 @@
         <v>4937877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,7 +8989,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10806D5-DFFD-4A91-96B7-7F9BECF2F6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D52B62-B317-4098-B33D-9AA46B572A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B993CA-65FD-423F-87A5-1B1DAFA45BA9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{928D3D95-7E8B-46ED-9775-BB6682D52319}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="631">
   <si>
     <t>Población con dolor crónico en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -101,1747 +101,1777 @@
     <t>0,38%</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>26,6%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>31,48%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>62,88%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
   </si>
   <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>66,49%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1853,52 +1883,55 @@
     <t>21,76%</t>
   </si>
   <si>
-    <t>20,1%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C898091F-971A-4E6D-876D-DB920841E992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C35ABD7-B68C-4BC7-A1F1-77B58E7B22CA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2984,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3032,13 @@
         <v>13565</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -3014,13 +3047,13 @@
         <v>36657</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>45</v>
@@ -3029,13 +3062,13 @@
         <v>50222</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3083,13 @@
         <v>127093</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>197</v>
@@ -3065,13 +3098,13 @@
         <v>213019</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>318</v>
@@ -3080,13 +3113,13 @@
         <v>340112</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3134,13 @@
         <v>821142</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>677</v>
@@ -3116,13 +3149,13 @@
         <v>717650</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1440</v>
@@ -3131,13 +3164,13 @@
         <v>1538792</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3226,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3211,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3220,7 +3253,7 @@
         <v>9436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>108</v>
@@ -3238,10 +3271,10 @@
         <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3289,13 @@
         <v>6360</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -3271,13 +3304,13 @@
         <v>50446</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -3286,13 +3319,13 @@
         <v>56806</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3340,13 @@
         <v>138303</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>188</v>
@@ -3322,13 +3355,13 @@
         <v>179671</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -3337,13 +3370,13 @@
         <v>317974</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3391,13 @@
         <v>533846</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>446</v>
@@ -3373,13 +3406,13 @@
         <v>444287</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>945</v>
@@ -3388,13 +3421,13 @@
         <v>978134</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3483,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3468,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3477,13 +3510,13 @@
         <v>3122</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3495,10 +3528,10 @@
         <v>47</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3546,13 @@
         <v>12104</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3528,13 +3561,13 @@
         <v>44274</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -3543,13 +3576,13 @@
         <v>56378</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3597,13 @@
         <v>165193</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>246</v>
@@ -3579,13 +3612,13 @@
         <v>255069</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>427</v>
@@ -3594,13 +3627,13 @@
         <v>420262</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3648,13 @@
         <v>764925</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>705</v>
@@ -3630,13 +3663,13 @@
         <v>736147</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>1504</v>
@@ -3645,13 +3678,13 @@
         <v>1501072</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3767,7 @@
         <v>13626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>172</v>
@@ -3749,10 +3782,10 @@
         <v>13626</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>44</v>
@@ -3770,13 +3803,13 @@
         <v>34988</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>133</v>
@@ -3785,13 +3818,13 @@
         <v>136417</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>168</v>
@@ -3800,13 +3833,13 @@
         <v>171405</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,10 +3854,10 @@
         <v>538745</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>186</v>
@@ -3869,7 +3902,7 @@
         <v>2633</v>
       </c>
       <c r="D32" s="7">
-        <v>2702810</v>
+        <v>2702811</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>193</v>
@@ -3899,7 +3932,7 @@
         <v>5005</v>
       </c>
       <c r="N32" s="7">
-        <v>5140412</v>
+        <v>5140411</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>199</v>
@@ -3920,7 +3953,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>41</v>
@@ -3950,7 +3983,7 @@
         <v>6511</v>
       </c>
       <c r="N33" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>41</v>
@@ -3985,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F9469-E535-4831-AED0-F2959BD7460B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E0A73A-F627-4B6B-A2E3-62B0C674BEEE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4145,7 +4178,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4208,13 @@
         <v>6665</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4190,13 +4223,13 @@
         <v>6665</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4244,13 @@
         <v>11912</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4226,13 +4259,13 @@
         <v>25094</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -4241,13 +4274,13 @@
         <v>37005</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4295,13 @@
         <v>103853</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4277,13 +4310,13 @@
         <v>79174</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -4292,13 +4325,13 @@
         <v>183027</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4399,7 +4432,7 @@
         <v>235</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>236</v>
@@ -4420,10 +4453,10 @@
         <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4432,13 +4465,13 @@
         <v>23195</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4447,13 +4480,13 @@
         <v>26236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4501,13 @@
         <v>72048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -4483,13 +4516,13 @@
         <v>117757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>177</v>
@@ -4498,13 +4531,13 @@
         <v>189805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4552,13 @@
         <v>512615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>414</v>
@@ -4534,13 +4567,13 @@
         <v>437985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>895</v>
@@ -4549,13 +4582,13 @@
         <v>950600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4638,13 +4671,13 @@
         <v>6248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4653,13 +4686,13 @@
         <v>6248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,10 +4710,10 @@
         <v>205</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4689,13 +4722,13 @@
         <v>30693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M15" s="7">
         <v>35</v>
@@ -4704,13 +4737,13 @@
         <v>39520</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>270</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4758,13 @@
         <v>109059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>175</v>
@@ -4740,13 +4773,13 @@
         <v>190797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -4755,13 +4788,13 @@
         <v>299856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4809,13 @@
         <v>900061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>731</v>
@@ -4791,13 +4824,13 @@
         <v>804446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>1559</v>
@@ -4806,13 +4839,13 @@
         <v>1704506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4901,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4886,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4901,7 +4934,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4910,13 +4943,13 @@
         <v>1995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,7 +4970,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -4946,13 +4979,13 @@
         <v>21209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -4961,13 +4994,13 @@
         <v>23203</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +5015,13 @@
         <v>56488</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H21" s="7">
         <v>149</v>
@@ -4997,13 +5030,13 @@
         <v>160060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M21" s="7">
         <v>199</v>
@@ -5012,13 +5045,13 @@
         <v>216548</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5066,13 @@
         <v>699141</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>535</v>
@@ -5048,13 +5081,13 @@
         <v>593910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>1172</v>
@@ -5063,13 +5096,13 @@
         <v>1293051</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,7 +5158,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5152,13 +5185,13 @@
         <v>1053</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -5167,13 +5200,13 @@
         <v>1053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,10 +5224,10 @@
         <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5203,13 +5236,13 @@
         <v>34494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -5218,13 +5251,13 @@
         <v>39561</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5272,13 @@
         <v>85842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
         <v>208</v>
@@ -5254,13 +5287,13 @@
         <v>221843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>290</v>
@@ -5269,13 +5302,13 @@
         <v>307685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5323,13 @@
         <v>856830</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H27" s="7">
         <v>761</v>
@@ -5305,13 +5338,13 @@
         <v>794511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M27" s="7">
         <v>1584</v>
@@ -5320,13 +5353,13 @@
         <v>1651341</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5442,13 @@
         <v>16476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5424,13 +5457,13 @@
         <v>16476</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5478,13 @@
         <v>18930</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -5460,13 +5493,13 @@
         <v>116256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="M30" s="7">
         <v>124</v>
@@ -5475,13 +5508,13 @@
         <v>135186</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5529,13 @@
         <v>335348</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H31" s="7">
         <v>664</v>
@@ -5511,13 +5544,13 @@
         <v>715551</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M31" s="7">
         <v>979</v>
@@ -5529,10 +5562,10 @@
         <v>55</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5580,13 @@
         <v>3072501</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H32" s="7">
         <v>2511</v>
@@ -5562,13 +5595,13 @@
         <v>2710026</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="M32" s="7">
         <v>5388</v>
@@ -5577,13 +5610,13 @@
         <v>5782527</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,7 +5693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1074705F-2F31-4B73-A843-68D2E4201E39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D617161C-D49A-496E-A2F6-C001E13206AE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5677,7 +5710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5790,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5799,13 +5832,13 @@
         <v>941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5814,13 +5847,13 @@
         <v>941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5868,13 @@
         <v>3052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5850,13 +5883,13 @@
         <v>2702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5865,13 +5898,13 @@
         <v>5754</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5919,13 @@
         <v>9881</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5901,13 +5934,13 @@
         <v>18834</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>379</v>
+        <v>92</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5916,13 +5949,13 @@
         <v>28715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5970,13 @@
         <v>103613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -5952,13 +5985,13 @@
         <v>90884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>194</v>
@@ -5967,13 +6000,13 @@
         <v>194497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6080,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -6056,13 +6089,13 @@
         <v>1205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6077,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6125,13 @@
         <v>7575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6107,13 +6140,13 @@
         <v>8581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6122,13 +6155,13 @@
         <v>16156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6176,13 @@
         <v>45419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -6158,13 +6191,13 @@
         <v>96687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -6173,13 +6206,13 @@
         <v>142106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6227,13 @@
         <v>505261</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H12" s="7">
         <v>450</v>
@@ -6209,13 +6242,13 @@
         <v>453006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M12" s="7">
         <v>937</v>
@@ -6224,13 +6257,13 @@
         <v>958267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6331,13 @@
         <v>974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6313,13 +6346,13 @@
         <v>928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6328,13 +6361,13 @@
         <v>1902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>420</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6382,13 @@
         <v>6866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -6364,13 +6397,13 @@
         <v>33408</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M15" s="7">
         <v>37</v>
@@ -6379,13 +6412,13 @@
         <v>40274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6433,13 @@
         <v>84127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>132</v>
@@ -6415,13 +6448,13 @@
         <v>146800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -6430,13 +6463,13 @@
         <v>230927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6484,13 @@
         <v>930464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>814</v>
@@ -6466,13 +6499,13 @@
         <v>861777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M17" s="7">
         <v>1678</v>
@@ -6481,13 +6514,13 @@
         <v>1792242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,7 +6576,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6561,7 +6594,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6576,7 +6609,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6585,13 +6618,13 @@
         <v>1271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6639,13 @@
         <v>5103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>450</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -6621,13 +6654,13 @@
         <v>23211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>447</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6636,13 +6669,13 @@
         <v>28314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6690,13 @@
         <v>58233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -6672,13 +6705,13 @@
         <v>89317</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
@@ -6687,13 +6720,13 @@
         <v>147550</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6741,13 @@
         <v>696216</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>631</v>
@@ -6723,13 +6756,13 @@
         <v>671212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>1267</v>
@@ -6738,13 +6771,13 @@
         <v>1367428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,7 +6833,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6833,7 +6866,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6863,13 +6896,13 @@
         <v>5283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -6878,13 +6911,13 @@
         <v>40774</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6893,13 +6926,13 @@
         <v>46057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6947,13 @@
         <v>95179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -6929,13 +6962,13 @@
         <v>184290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>256</v>
@@ -6944,13 +6977,13 @@
         <v>279470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6998,13 @@
         <v>837105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>66</v>
+        <v>490</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -6980,13 +7013,13 @@
         <v>816482</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M27" s="7">
         <v>1592</v>
@@ -6995,13 +7028,13 @@
         <v>1653587</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7102,13 @@
         <v>974</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7084,13 +7117,13 @@
         <v>6577</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -7102,10 +7135,10 @@
         <v>75</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>74</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,10 +7156,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>489</v>
+        <v>347</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
@@ -7135,13 +7168,13 @@
         <v>108676</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>371</v>
+        <v>239</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -7150,13 +7183,13 @@
         <v>136554</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>492</v>
+        <v>113</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7204,13 @@
         <v>292839</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="H31" s="7">
         <v>489</v>
@@ -7186,13 +7219,13 @@
         <v>535928</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="M31" s="7">
         <v>769</v>
@@ -7201,13 +7234,13 @@
         <v>828767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7255,13 @@
         <v>3072659</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H32" s="7">
         <v>2744</v>
@@ -7237,13 +7270,13 @@
         <v>2893361</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="M32" s="7">
         <v>5668</v>
@@ -7252,13 +7285,13 @@
         <v>5966020</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,7 +7368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431A4887-B5DC-44CF-9EF1-4210D9D242C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ADC91F-1957-482D-BBEA-52B44F8DD6FA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7352,7 +7385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7465,7 +7498,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7480,7 +7513,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7516,7 +7549,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7531,7 +7564,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7561,13 +7594,13 @@
         <v>26570</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -7576,13 +7609,13 @@
         <v>52006</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>135</v>
@@ -7591,13 +7624,13 @@
         <v>78576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7645,13 @@
         <v>75412</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -7627,13 +7660,13 @@
         <v>78727</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -7642,13 +7675,13 @@
         <v>154139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,7 +7755,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7737,7 +7770,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7752,7 +7785,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>533</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7773,7 +7806,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7788,7 +7821,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7803,7 +7836,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,13 +7851,13 @@
         <v>121755</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -7833,13 +7866,13 @@
         <v>222311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>567</v>
@@ -7848,13 +7881,13 @@
         <v>344066</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7902,13 @@
         <v>428068</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>545</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>585</v>
@@ -7884,13 +7917,13 @@
         <v>397656</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="M12" s="7">
         <v>1043</v>
@@ -7899,13 +7932,13 @@
         <v>825724</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,7 +8012,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7994,7 +8027,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8009,7 +8042,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,7 +8063,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8045,7 +8078,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8060,7 +8093,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +8108,13 @@
         <v>195848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>637</v>
@@ -8090,13 +8123,13 @@
         <v>408943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>856</v>
@@ -8105,13 +8138,13 @@
         <v>604791</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8159,13 @@
         <v>843400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>561</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -8141,13 +8174,13 @@
         <v>651136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>1625</v>
@@ -8156,13 +8189,13 @@
         <v>1494536</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>574</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8218,7 +8251,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8236,7 +8269,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8287,7 +8320,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8332,13 +8365,13 @@
         <v>169538</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>568</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="H21" s="7">
         <v>450</v>
@@ -8347,13 +8380,13 @@
         <v>425509</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="M21" s="7">
         <v>625</v>
@@ -8362,13 +8395,13 @@
         <v>595046</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8416,13 @@
         <v>559234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H22" s="7">
         <v>597</v>
@@ -8398,13 +8431,13 @@
         <v>448862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M22" s="7">
         <v>1098</v>
@@ -8413,13 +8446,13 @@
         <v>1008096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,7 +8508,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8493,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8508,7 +8541,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>533</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8523,7 +8556,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>583</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,7 +8577,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8559,7 +8592,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8574,7 +8607,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>583</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,13 +8622,13 @@
         <v>222784</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>584</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H26" s="7">
         <v>605</v>
@@ -8604,13 +8637,13 @@
         <v>437668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="M26" s="7">
         <v>853</v>
@@ -8619,13 +8652,13 @@
         <v>660452</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,13 +8673,13 @@
         <v>742619</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="H27" s="7">
         <v>957</v>
@@ -8655,13 +8688,13 @@
         <v>712764</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="M27" s="7">
         <v>1715</v>
@@ -8670,13 +8703,13 @@
         <v>1455383</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>166</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8765,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8780,7 +8813,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8816,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8831,7 +8864,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,13 +8879,13 @@
         <v>736495</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>126</v>
+        <v>615</v>
       </c>
       <c r="H31" s="7">
         <v>2204</v>
@@ -8861,28 +8894,28 @@
         <v>1546437</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="M31" s="7">
         <v>3036</v>
       </c>
       <c r="N31" s="7">
-        <v>2282931</v>
+        <v>2282932</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8897,13 +8930,13 @@
         <v>2648733</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="H32" s="7">
         <v>3163</v>
@@ -8912,13 +8945,13 @@
         <v>2289144</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="M32" s="7">
         <v>5707</v>
@@ -8927,13 +8960,13 @@
         <v>4937877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8975,7 +9008,7 @@
         <v>8743</v>
       </c>
       <c r="N33" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>41</v>
